--- a/Proyectos/2016/Calidad/Checklist_organizacional_interno_160202.xlsx
+++ b/Proyectos/2016/Calidad/Checklist_organizacional_interno_160202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>DATOS GENERALES</t>
   </si>
@@ -545,8 +545,8 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10905,11 +10905,11 @@
       </c>
       <c r="C20" s="13" t="n">
         <f aca="false">COUNTA(Funcional!C4:C7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="D20" s="14" t="e">
+      <c r="D20" s="14" t="n">
         <f aca="false">COUNTIF(Funcional!C4:C7,"x")/(COUNTIF((Funcional!C4:C7),"x")+COUNTIF((Funcional!D4:D7),"x"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,11 +10947,11 @@
       </c>
       <c r="C25" s="13" t="n">
         <f aca="false">COUNTA(Física!C4:C4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="D25" s="14" t="e">
+      <c r="D25" s="14" t="n">
         <f aca="false">COUNTIF(Física!C4:C4,"x")/(COUNTIF((Física!C4:C4),"x")+COUNTIF((Física!D4:D4),"x"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11118,7 +11118,7 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11168,19 +11168,21 @@
       <c r="E3" s="23"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="n">
         <v>2</v>
       </c>
@@ -11189,29 +11191,35 @@
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="30"/>
@@ -11246,7 +11254,7 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11296,14 +11304,16 @@
       <c r="E3" s="32"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="30"/>
